--- a/duygu_durumu.xlsx
+++ b/duygu_durumu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr codeName="BuÇalışmaKitabı"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkandogan\Desktop\Laptop\Open Data\1-IMM\Temalar\Yönetişim\VDYM Analizler\D Bölümü\Düzenlenmiş\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtgun\OneDrive\Belgeler\GitHub\muy665-bahar2024-takim-what-R-we-doing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0328420A-BEB2-44E9-B185-6D1CF6834611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1.2" sheetId="1" r:id="rId1"/>
@@ -113,133 +114,133 @@
     <t>Yaşam Memnuniyeti_Çok Fazla</t>
   </si>
   <si>
-    <t xml:space="preserve"> ADALAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ARNAVUTKÖY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATAŞEHİR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AVCILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAĞCILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAHÇELİEVLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAKIRKÖY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAŞAKŞEHİR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAYRAMPAŞA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BEŞİKTAŞ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BEYKOZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BEYLİKDÜZÜ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BEYOĞLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BÜYÜKÇEKMECE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ÇATALCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ÇEKMEKÖY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESENLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESENYURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EYÜPSULTAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FATİH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GÜNGÖREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KADIKÖY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KAĞITHANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KARTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KÜÇÜKÇEKMECE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MALTEPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PENDİK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SANCAKTEPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SARIYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SİLİVRİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SULTANBEYLİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SULTANGAZİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ŞİLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ŞİŞLİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TUZLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ÜMRANİYE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ÜSKÜDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ZEYTİNBURNU</t>
-  </si>
-  <si>
-    <t>GAZİOSMANPAŞA</t>
-  </si>
-  <si>
     <t>Kaygı_Fazla</t>
   </si>
   <si>
     <t>İlçe</t>
+  </si>
+  <si>
+    <t>Adalar</t>
+  </si>
+  <si>
+    <t>Arnavutköy</t>
+  </si>
+  <si>
+    <t>Ataşehir</t>
+  </si>
+  <si>
+    <t>Avcılar</t>
+  </si>
+  <si>
+    <t>Bağcılar</t>
+  </si>
+  <si>
+    <t>Bahçelievler</t>
+  </si>
+  <si>
+    <t>Bakırköy</t>
+  </si>
+  <si>
+    <t>Başakşehir</t>
+  </si>
+  <si>
+    <t>Bayrampaşa</t>
+  </si>
+  <si>
+    <t>Beşiktaş</t>
+  </si>
+  <si>
+    <t>Beykoz</t>
+  </si>
+  <si>
+    <t>Beylikdüzü</t>
+  </si>
+  <si>
+    <t>Beyoğlu</t>
+  </si>
+  <si>
+    <t>Büyükçekmece</t>
+  </si>
+  <si>
+    <t>Çatalca</t>
+  </si>
+  <si>
+    <t>Çekmeköy</t>
+  </si>
+  <si>
+    <t>Esenler</t>
+  </si>
+  <si>
+    <t>Esenyurt</t>
+  </si>
+  <si>
+    <t>Eyüpsultan</t>
+  </si>
+  <si>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>Gaziosmanpaşa</t>
+  </si>
+  <si>
+    <t>Güngören</t>
+  </si>
+  <si>
+    <t>Kadıköy</t>
+  </si>
+  <si>
+    <t>Kağıthane</t>
+  </si>
+  <si>
+    <t>Kartal</t>
+  </si>
+  <si>
+    <t>Küçükçekmece</t>
+  </si>
+  <si>
+    <t>Maltepe</t>
+  </si>
+  <si>
+    <t>Pendik</t>
+  </si>
+  <si>
+    <t>Sancaktepe</t>
+  </si>
+  <si>
+    <t>Sarıyer</t>
+  </si>
+  <si>
+    <t>Şile</t>
+  </si>
+  <si>
+    <t>Silivri</t>
+  </si>
+  <si>
+    <t>Şişli</t>
+  </si>
+  <si>
+    <t>Sultanbeyli</t>
+  </si>
+  <si>
+    <t>Sultangazi</t>
+  </si>
+  <si>
+    <t>Tuzla</t>
+  </si>
+  <si>
+    <t>Ümraniye</t>
+  </si>
+  <si>
+    <t>Üsküdar</t>
+  </si>
+  <si>
+    <t>Zeytinburnu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0"/>
   </numFmts>
@@ -324,7 +325,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_D1.2" xfId="1"/>
+    <cellStyle name="Normal_D1.2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,52 +602,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="4"/>
+    <col min="21" max="21" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -658,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -740,9 +741,9 @@
       </c>
       <c r="AF1" s="3"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="1">
         <v>9</v>
@@ -836,9 +837,9 @@
       </c>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -932,9 +933,9 @@
       </c>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>28</v>
@@ -1028,9 +1029,9 @@
       </c>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>16</v>
@@ -1124,9 +1125,9 @@
       </c>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="1">
         <v>24</v>
@@ -1220,9 +1221,9 @@
       </c>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="1">
         <v>17</v>
@@ -1316,9 +1317,9 @@
       </c>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="1">
         <v>21</v>
@@ -1412,9 +1413,9 @@
       </c>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>17</v>
@@ -1508,9 +1509,9 @@
       </c>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="1">
         <v>18</v>
@@ -1604,9 +1605,9 @@
       </c>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
       </c>
       <c r="B11" s="1">
         <v>15</v>
@@ -1700,9 +1701,9 @@
       </c>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="1">
         <v>32</v>
@@ -1796,9 +1797,9 @@
       </c>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -1892,9 +1893,9 @@
       </c>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -1988,9 +1989,9 @@
       </c>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>42</v>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
       </c>
       <c r="B15" s="1">
         <v>23</v>
@@ -2084,9 +2085,9 @@
       </c>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2180,9 +2181,9 @@
       </c>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="1">
         <v>18</v>
@@ -2276,9 +2277,9 @@
       </c>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <v>44</v>
@@ -2372,9 +2373,9 @@
       </c>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="1">
         <v>43</v>
@@ -2468,9 +2469,9 @@
       </c>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>47</v>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="1">
         <v>29</v>
@@ -2564,9 +2565,9 @@
       </c>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>48</v>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="1">
         <v>29</v>
@@ -2660,9 +2661,9 @@
       </c>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>67</v>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>51</v>
       </c>
       <c r="B22" s="1">
         <v>33</v>
@@ -2756,9 +2757,9 @@
       </c>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="1">
         <v>29</v>
@@ -2852,9 +2853,9 @@
       </c>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>53</v>
       </c>
       <c r="B24" s="1">
         <v>49</v>
@@ -2948,9 +2949,9 @@
       </c>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>45</v>
@@ -3044,9 +3045,9 @@
       </c>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>55</v>
       </c>
       <c r="B26" s="1">
         <v>73</v>
@@ -3140,9 +3141,9 @@
       </c>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>53</v>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>56</v>
       </c>
       <c r="B27" s="1">
         <v>45</v>
@@ -3236,9 +3237,9 @@
       </c>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
       </c>
       <c r="B28" s="1">
         <v>29</v>
@@ -3332,9 +3333,9 @@
       </c>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>55</v>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>58</v>
       </c>
       <c r="B29" s="1">
         <v>114</v>
@@ -3428,9 +3429,9 @@
       </c>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>56</v>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
       </c>
       <c r="B30" s="1">
         <v>67</v>
@@ -3524,9 +3525,9 @@
       </c>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>57</v>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
       </c>
       <c r="B31" s="1">
         <v>53</v>
@@ -3620,9 +3621,9 @@
       </c>
       <c r="AF31" s="3"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>58</v>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
       </c>
       <c r="B32" s="1">
         <v>18</v>
@@ -3716,9 +3717,9 @@
       </c>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>59</v>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>62</v>
       </c>
       <c r="B33" s="1">
         <v>42</v>
@@ -3812,9 +3813,9 @@
       </c>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>60</v>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>63</v>
       </c>
       <c r="B34" s="1">
         <v>46</v>
@@ -3908,9 +3909,9 @@
       </c>
       <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>61</v>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>64</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
@@ -4004,9 +4005,9 @@
       </c>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>62</v>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>65</v>
       </c>
       <c r="B36" s="1">
         <v>19</v>
@@ -4100,9 +4101,9 @@
       </c>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>63</v>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>66</v>
       </c>
       <c r="B37" s="1">
         <v>40</v>
@@ -4196,9 +4197,9 @@
       </c>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>64</v>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>67</v>
       </c>
       <c r="B38" s="1">
         <v>82</v>
@@ -4292,9 +4293,9 @@
       </c>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>65</v>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>68</v>
       </c>
       <c r="B39" s="1">
         <v>39</v>
@@ -4388,9 +4389,9 @@
       </c>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>66</v>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>69</v>
       </c>
       <c r="B40" s="1">
         <v>24</v>
